--- a/experiments/main/cleft_main/Stimuli.xlsx
+++ b/experiments/main/cleft_main/Stimuli.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Arbeit\Expectedness\experiments\cleft_exp\pilot1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Arbeit\Expectedness\github\expectations_cleft\experiments\main\cleft_main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F250DC9-4EDA-473A-B596-AE868A16DD4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26A21E3-6464-4380-8731-81A57264932B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1152FA21-4474-45A6-9A96-90334F65BFF9}"/>
   </bookViews>
@@ -25,21 +25,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="182">
   <si>
     <t>context_part1</t>
   </si>
@@ -534,6 +525,57 @@
   </si>
   <si>
     <t>X hat die Blumen gegossen.</t>
+  </si>
+  <si>
+    <t>target no</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>t5</t>
+  </si>
+  <si>
+    <t>t6</t>
+  </si>
+  <si>
+    <t>t7</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t9</t>
+  </si>
+  <si>
+    <t>t10</t>
+  </si>
+  <si>
+    <t>t11</t>
+  </si>
+  <si>
+    <t>t12</t>
+  </si>
+  <si>
+    <t>t13</t>
+  </si>
+  <si>
+    <t>t14</t>
+  </si>
+  <si>
+    <t>t15</t>
+  </si>
+  <si>
+    <t>t16</t>
   </si>
 </sst>
 </file>
@@ -1806,368 +1848,369 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="65.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
     <col min="5" max="5" width="7.28515625" customWidth="1"/>
     <col min="6" max="6" width="48.140625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8">
-        <v>1</v>
-      </c>
-      <c r="B1" s="8">
+    <row r="1" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>12</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="G2" s="9">
+        <v>5.6</v>
+      </c>
+      <c r="H2" s="8"/>
+    </row>
+    <row r="3" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
         <v>11</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="G1" s="9">
+      <c r="B3" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="G3" s="9">
+        <v>5.6</v>
+      </c>
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>8</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="G4" s="11">
+        <v>3.4</v>
+      </c>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>9</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G5" s="9">
+        <v>5.6</v>
+      </c>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>10</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G6" s="9">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>4</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="G7" s="9">
         <v>1.2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
-        <v>2</v>
-      </c>
-      <c r="B2" s="8">
-        <v>16</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="G2" s="9">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>3</v>
-      </c>
-      <c r="B3" s="8">
-        <v>9</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="G3" s="9">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>4</v>
-      </c>
-      <c r="B4" s="8">
+    <row r="8" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
         <v>6</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="G4" s="9">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>5</v>
-      </c>
-      <c r="B5" s="10">
-        <v>10</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="G5" s="11">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>6</v>
-      </c>
-      <c r="B6" s="10">
-        <v>7</v>
-      </c>
-      <c r="C6" s="10" t="s">
+      <c r="B8" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E8" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F8" s="10" t="s">
         <v>143</v>
-      </c>
-      <c r="G6" s="11">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>7</v>
-      </c>
-      <c r="B7" s="10">
-        <v>12</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="G7" s="11">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>8</v>
-      </c>
-      <c r="B8" s="10">
-        <v>3</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>136</v>
       </c>
       <c r="G8" s="11">
         <v>3.4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
-        <v>9</v>
-      </c>
-      <c r="B9" s="8">
-        <v>4</v>
-      </c>
-      <c r="C9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="G9" s="11">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>3</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="G10" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>5</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="G11" s="11">
+        <v>3.4</v>
+      </c>
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>1</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G12" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>7</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="G13" s="11">
+        <v>3.4</v>
+      </c>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="G9" s="9">
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>10</v>
-      </c>
-      <c r="B10" s="8">
-        <v>5</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="G10" s="9">
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <v>11</v>
-      </c>
-      <c r="B11" s="8">
-        <v>2</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G11" s="9">
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <v>12</v>
-      </c>
-      <c r="B12" s="8">
-        <v>1</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="G12" s="9">
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
-        <v>13</v>
-      </c>
-      <c r="B13" s="10">
-        <v>13</v>
-      </c>
-      <c r="C13" s="10" t="s">
+      <c r="B14" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D14" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E14" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F14" s="10" t="s">
         <v>152</v>
-      </c>
-      <c r="G13" s="11">
-        <v>7.8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
-        <v>14</v>
-      </c>
-      <c r="B14" s="10">
-        <v>14</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>155</v>
       </c>
       <c r="G14" s="11">
         <v>7.8</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
-        <v>15</v>
-      </c>
-      <c r="B15" s="10">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>179</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="G15" s="11">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>16</v>
       </c>
-      <c r="B16" s="10">
-        <v>15</v>
+      <c r="B16" s="10" t="s">
+        <v>180</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>36</v>
@@ -2186,17 +2229,28 @@
       </c>
     </row>
     <row r="17" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="6" t="s">
-        <v>151</v>
-      </c>
+      <c r="A17" s="8">
+        <v>2</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="G17" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="H17" s="8"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C19" s="3"/>
@@ -2225,8 +2279,8 @@
       <c r="E22" s="3"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:G17">
-    <sortCondition ref="A1:A17"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H22">
+    <sortCondition ref="B2:B22"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
